--- a/hardware/foras-promineo-revB-em/bom/mainboard.xlsx
+++ b/hardware/foras-promineo-revB-em/bom/mainboard.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github\mainboard\hardware\foras-promineo-revB-fm\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github\mainboard\hardware\foras-promineo-revB-em\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="mainboard" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="280">
   <si>
     <t>Item</t>
   </si>
@@ -42,6 +42,9 @@
     <t>8pF</t>
   </si>
   <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
     <t>~</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>10uF</t>
   </si>
   <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
     <t>3.3nF</t>
   </si>
   <si>
@@ -66,7 +72,7 @@
     <t>100uF</t>
   </si>
   <si>
-    <t>C33</t>
+    <t>Capacitor_SMD:C_1210_3225Metric</t>
   </si>
   <si>
     <t>C34</t>
@@ -84,15 +90,30 @@
     <t>C51</t>
   </si>
   <si>
+    <t>Capacitor_Tantalum_SMD:CP_EIA-7343-43_Kemet-X</t>
+  </si>
+  <si>
     <t>T498X107K016ATE075</t>
   </si>
   <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>0.01uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
     <t>C203</t>
   </si>
   <si>
     <t>47uF</t>
   </si>
   <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
     <t>GRT31CR61A476KE13L</t>
   </si>
   <si>
@@ -117,6 +138,9 @@
     <t>WS2812B</t>
   </si>
   <si>
+    <t>LED_SMD:LED_WS2812B_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
     <t>WS2812B-B</t>
   </si>
   <si>
@@ -126,6 +150,9 @@
     <t>DFLS130L</t>
   </si>
   <si>
+    <t>mainboard:PWRDI-123</t>
+  </si>
+  <si>
     <t>DFLS130L-7</t>
   </si>
   <si>
@@ -135,6 +162,9 @@
     <t>RED</t>
   </si>
   <si>
+    <t>SLI-Blank-Card:APA2107x</t>
+  </si>
+  <si>
     <t>APA2107LSECK/J3-PRV</t>
   </si>
   <si>
@@ -168,24 +198,42 @@
     <t>V4PAL45HM3_A/I</t>
   </si>
   <si>
+    <t>mainboard-SLI:SMPA</t>
+  </si>
+  <si>
     <t>D208</t>
   </si>
   <si>
     <t>1N4148WSTR</t>
   </si>
   <si>
+    <t>Diode_SMD:D_SOD-323</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
     <t>503182-1852</t>
   </si>
   <si>
+    <t>mainboard:MOLEX_503182-1852</t>
+  </si>
+  <si>
     <t>J2</t>
   </si>
   <si>
+    <t>Conn_01x05</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t>Amphenol_901-144</t>
   </si>
   <si>
+    <t>Connector_Coaxial:SMA_Amphenol_901-144_Vertical</t>
+  </si>
+  <si>
     <t>901-144</t>
   </si>
   <si>
@@ -195,18 +243,27 @@
     <t>T1M-08-F-SV-L</t>
   </si>
   <si>
+    <t>mainboard-SLI:SAMTEC_T1M-08-F-SV-L</t>
+  </si>
+  <si>
     <t>J200</t>
   </si>
   <si>
     <t>ZX62-AB-5PA(31)</t>
   </si>
   <si>
+    <t>SLI-Backplane-Blank-Card-KiCad:ZX62-AB-5PA(31)</t>
+  </si>
+  <si>
     <t>L1</t>
   </si>
   <si>
     <t>10uH</t>
   </si>
   <si>
+    <t>Inductor_SMD:L_1210_3225Metric</t>
+  </si>
+  <si>
     <t>BCL322520RT-100M-D</t>
   </si>
   <si>
@@ -216,6 +273,9 @@
     <t>3.3uH</t>
   </si>
   <si>
+    <t>mainboard:L_2141</t>
+  </si>
+  <si>
     <t>SPM5030T-3R3M-HZ</t>
   </si>
   <si>
@@ -225,12 +285,18 @@
     <t>1uH</t>
   </si>
   <si>
+    <t>mainboard:L_2510</t>
+  </si>
+  <si>
     <t>DFE252012F-1R0M</t>
   </si>
   <si>
     <t>1.5uH</t>
   </si>
   <si>
+    <t>mainboard-SLI:L_Bourns_SRN8040TA</t>
+  </si>
+  <si>
     <t>SRN8040TA-1R5Y</t>
   </si>
   <si>
@@ -240,21 +306,36 @@
     <t>22uH</t>
   </si>
   <si>
+    <t>mainboard-SLI:L_Wuerth_WE-PD-1260</t>
+  </si>
+  <si>
     <t>DMN100-7-F</t>
   </si>
   <si>
+    <t>mainboard:SOT-23</t>
+  </si>
+  <si>
     <t>MMDT5551-7-F</t>
   </si>
   <si>
+    <t>Package_TO_SOT_SMD:SOT-363_SC-70-6</t>
+  </si>
+  <si>
     <t>Q6</t>
   </si>
   <si>
     <t>SMMBT2222AWT1G</t>
   </si>
   <si>
+    <t>Package_TO_SOT_SMD:SOT-323_SC-70</t>
+  </si>
+  <si>
     <t>MMBT3906-7-F</t>
   </si>
   <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
     <t>Q11</t>
   </si>
   <si>
@@ -264,6 +345,9 @@
     <t>BSS138DWQ-7</t>
   </si>
   <si>
+    <t>mainboard:BSS138DWQ-7</t>
+  </si>
+  <si>
     <t>Q17</t>
   </si>
   <si>
@@ -273,6 +357,9 @@
     <t>IRF7404TRPBF</t>
   </si>
   <si>
+    <t>Package_SO:SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
     <t>Q51</t>
   </si>
   <si>
@@ -282,7 +369,7 @@
     <t>BC847BM3T5G</t>
   </si>
   <si>
-    <t>IRF7404</t>
+    <t>Package_TO_SOT_SMD:SOT-723</t>
   </si>
   <si>
     <t>Q208</t>
@@ -297,6 +384,9 @@
     <t>316k</t>
   </si>
   <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
@@ -309,6 +399,9 @@
     <t>100k</t>
   </si>
   <si>
+    <t>Resistor_SMD:R_2512_6332Metric</t>
+  </si>
+  <si>
     <t>1Meg</t>
   </si>
   <si>
@@ -360,6 +453,12 @@
     <t>412k</t>
   </si>
   <si>
+    <t>2.7k</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
     <t>R201</t>
   </si>
   <si>
@@ -381,6 +480,9 @@
     <t>R256</t>
   </si>
   <si>
+    <t>Resistor_SMD:R_1206_3216Metric</t>
+  </si>
+  <si>
     <t>WSLP1206R0500DEA</t>
   </si>
   <si>
@@ -402,12 +504,18 @@
     <t>KMR231NG LFS</t>
   </si>
   <si>
+    <t>mainboard:BTN_KMR2_4.6X2.8</t>
+  </si>
+  <si>
     <t>SW200</t>
   </si>
   <si>
     <t>SW_Push_SPST</t>
   </si>
   <si>
+    <t>SLI-Blank-Card:EVQP7C01P</t>
+  </si>
+  <si>
     <t>EVQP7C01P</t>
   </si>
   <si>
@@ -417,51 +525,117 @@
     <t>MAX706RESA</t>
   </si>
   <si>
+    <t>Package_SO:SO-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
     <t>ATSAMD51N20A-AUT</t>
   </si>
   <si>
+    <t>Package_QFP:TQFP-100_14x14mm_P0.5mm</t>
+  </si>
+  <si>
     <t>ADM1176-1ARMZ-R7</t>
   </si>
   <si>
+    <t>mainboard:ADM1176-1ARMZ-R7</t>
+  </si>
+  <si>
     <t>U5</t>
   </si>
   <si>
     <t>TPS54226PWPRPWP14_2P31X2P46-L</t>
   </si>
   <si>
+    <t>mainboard:PWP14_2P31X2P46-L</t>
+  </si>
+  <si>
+    <t>TPS54226PWPR</t>
+  </si>
+  <si>
     <t>U6</t>
   </si>
   <si>
     <t>74HC4067PW,118</t>
   </si>
   <si>
+    <t>Package_SO:TSSOP-24_4.4x7.8mm_P0.65mm</t>
+  </si>
+  <si>
     <t>U7</t>
   </si>
   <si>
     <t>OPA340MDBVTEP</t>
   </si>
   <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
     <t>U8</t>
   </si>
   <si>
     <t>MR25H40MDF</t>
   </si>
   <si>
+    <t>mainboard:SON127P600X500X90-9N</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>S1216V8</t>
+  </si>
+  <si>
+    <t>mainboard:S1216_24PIN_PACKAGE</t>
+  </si>
+  <si>
     <t>U16</t>
   </si>
   <si>
     <t>PE014006</t>
   </si>
   <si>
+    <t>mainboard:RELAY_PE014006</t>
+  </si>
+  <si>
+    <t>PE014006 TE</t>
+  </si>
+  <si>
     <t>U17</t>
   </si>
   <si>
     <t>BQ25883RGER</t>
   </si>
   <si>
+    <t>mainboard:QFN50P400X400X100-25N-D</t>
+  </si>
+  <si>
+    <t>RFM98PW</t>
+  </si>
+  <si>
+    <t>mainboard:RFM95PW</t>
+  </si>
+  <si>
+    <t>U51</t>
+  </si>
+  <si>
+    <t>LTC4307</t>
+  </si>
+  <si>
+    <t>Package_SO:MSOP-8_3x3mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>LTC4307IMS8#TRPBF</t>
+  </si>
+  <si>
+    <t>SN74LVCH245APWR</t>
+  </si>
+  <si>
+    <t>Package_SO:TSSOP-20_4.4x6.5mm_P0.65mm</t>
+  </si>
+  <si>
     <t>U200</t>
   </si>
   <si>
@@ -474,27 +648,48 @@
     <t>PCA9543APW,118</t>
   </si>
   <si>
+    <t>Package_SO:TSSOP-14_4.4x5mm_P0.65mm</t>
+  </si>
+  <si>
     <t>TPS63070</t>
   </si>
   <si>
+    <t>mainboard-SLI:TPS63070RNMR</t>
+  </si>
+  <si>
     <t>IAM-20380</t>
   </si>
   <si>
+    <t>mainboard-SLI:IAM-20380</t>
+  </si>
+  <si>
     <t>MMC5983MA</t>
   </si>
   <si>
+    <t>mainboard-SLI:MMC5983MA</t>
+  </si>
+  <si>
     <t>MXC6655XA</t>
   </si>
   <si>
+    <t>mainboard-SLI:MXC6655XA</t>
+  </si>
+  <si>
     <t>U211</t>
   </si>
   <si>
+    <t>mainboard-SLI:MSOP-12-1EP_3x4mm_P0.65mm_EP1.65x2.85mm_ThermalVias</t>
+  </si>
+  <si>
     <t>Y1</t>
   </si>
   <si>
     <t>32.768kHz</t>
   </si>
   <si>
+    <t>Crystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
+  </si>
+  <si>
     <t>ABS07-32.768KHZ-T</t>
   </si>
   <si>
@@ -504,10 +699,10 @@
     <t>C1, C2</t>
   </si>
   <si>
-    <t>C3, C5, C9, C10, C11, C21, C22, C30, C216, C217, C218, C219, C224, C231, C234, C241, C251, C252, C253</t>
-  </si>
-  <si>
-    <t>C4, C12, C13, C15, C27, C221, C222, C228, C229, C244</t>
+    <t>C3, C5, C9, C10, C11, C21, C22, C30, C52, C53, C216, C217, C218, C219, C224, C231, C234, C241, C251, C252, C253</t>
+  </si>
+  <si>
+    <t>C6, C35, C44, C46</t>
   </si>
   <si>
     <t>C7, C26, C32</t>
@@ -540,6 +735,9 @@
     <t>D206, D207</t>
   </si>
   <si>
+    <t>J5, J7, J12</t>
+  </si>
+  <si>
     <t>L201, L202</t>
   </si>
   <si>
@@ -555,16 +753,13 @@
     <t>Q12, Q13, Q18, Q19</t>
   </si>
   <si>
-    <t>Q20, Q21, Q22</t>
-  </si>
-  <si>
     <t>Q200, Q201, Q202, Q203</t>
   </si>
   <si>
-    <t>Q207, Q211, Q212, Q213, Q220</t>
-  </si>
-  <si>
-    <t>R6, R10, R15, R19, R30, R37, R38, R41, R49, R54, R55, R56, R59, R73, R74, R90, R91, R93, R94, R102, R106, R117, R118, R123, R124, R129, R130, R131, R132, R225, R227, R229, R234, R239, R240, R252, R254, R259, R260</t>
+    <t>R3, R4, R5, R7, R21, R24, R25, R27, R28, R42, R43, R44, R45, R46, R50, R51, R52, R57, R61, R62, R65, R66, R67, R82, R83, R84, R85, R105, R114, R115, R116, R119, R121, R125, R127, R218, R230, R231, R235, R238</t>
+  </si>
+  <si>
+    <t>R6, R10, R15, R19, R30, R37, R38, R41, R49, R54, R55, R56, R59, R73, R74, R90, R91, R93, R94, R102, R106, R117, R118, R123, R124, R129, R130, R131, R132, R167, R225, R227, R229, R234, R239, R240, R252, R254, R259, R260</t>
   </si>
   <si>
     <t>R8, R17</t>
@@ -588,6 +783,9 @@
     <t>R47, R75, R76, R95, R96</t>
   </si>
   <si>
+    <t>R48, R53, R97, R98, R99, R101, R104, R107, R108, R109</t>
+  </si>
+  <si>
     <t>R58, R79, R80, R81, R88, R89, R100, R111, R112, R113, R134, R135</t>
   </si>
   <si>
@@ -597,6 +795,12 @@
     <t>R133, R262</t>
   </si>
   <si>
+    <t>R136, R137, R138, R139, R140, R141, R142, R143, R144, R145, R146, R147, R148, R149, R150, R151, R153, R154, R155, R156, R157, R158, R159, R160, R161, R162, R163, R164, R165</t>
+  </si>
+  <si>
+    <t>R152, R166</t>
+  </si>
+  <si>
     <t>R200, R211</t>
   </si>
   <si>
@@ -615,6 +819,12 @@
     <t>U3, U4</t>
   </si>
   <si>
+    <t>U23, U24</t>
+  </si>
+  <si>
+    <t>U52, U53</t>
+  </si>
+  <si>
     <t>U203, U210</t>
   </si>
   <si>
@@ -633,157 +843,22 @@
     <t>Mfr. P/N</t>
   </si>
   <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>SOD-323</t>
-  </si>
-  <si>
-    <t>SMPA</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>EIA-7343-43_Kemet-X</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>LED_WS2812B_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>PWRDI-123</t>
-  </si>
-  <si>
-    <t>APA2107x</t>
-  </si>
-  <si>
-    <t>MOLEX_503182-1852</t>
-  </si>
-  <si>
-    <t>PinHeader_1x05_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>SMA_Amphenol_901-144_Vertical</t>
-  </si>
-  <si>
-    <t>SAMTEC_T1M-08-F-SV-L</t>
-  </si>
-  <si>
-    <t>L_1210_3225Metric</t>
-  </si>
-  <si>
-    <t>L_2141</t>
-  </si>
-  <si>
-    <t>L_Bourns_SRN8040TA</t>
-  </si>
-  <si>
-    <t>L_2510</t>
-  </si>
-  <si>
-    <t>L_Wuerth_WE-PD-Typ-LS</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>SOT-363_SC-70-6</t>
-  </si>
-  <si>
-    <t>SOT-323_SC-70</t>
-  </si>
-  <si>
-    <t>SOT363</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>SOT-723</t>
-  </si>
-  <si>
-    <t>BTN_KMR2_4.6X2.8</t>
-  </si>
-  <si>
-    <t>2512</t>
-  </si>
-  <si>
-    <t>SO-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>TQFP-100_14x14mm_P0.5mm</t>
-  </si>
-  <si>
-    <t>RELAY_PE014006</t>
-  </si>
-  <si>
-    <t>QFN50P400X400X100-25N-D</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>TSSOP-24_4.4x7.8mm_P0.65mm</t>
-  </si>
-  <si>
-    <t>PWP14_2P31X2P46-L</t>
-  </si>
-  <si>
-    <t>TSSOP-14_4.4x5mm_P0.65mm</t>
-  </si>
-  <si>
-    <t>3215</t>
-  </si>
-  <si>
-    <t>MSOP-12-1EP</t>
-  </si>
-  <si>
-    <t>10-MSOP</t>
-  </si>
-  <si>
-    <t>8-VDFN</t>
-  </si>
-  <si>
-    <t>15-PowerVFQFN</t>
-  </si>
-  <si>
-    <t>16-WFLGA</t>
-  </si>
-  <si>
-    <t>16-VFLGA</t>
-  </si>
-  <si>
-    <t>12-VFLGA</t>
+    <t>5031821852</t>
+  </si>
+  <si>
+    <t>BSS138DWQ-7 or  MMDT2907AQ-7-F</t>
   </si>
   <si>
     <t>‎LT3652HVEMSE#TRPBF‎</t>
   </si>
   <si>
-    <t>7447709220</t>
-  </si>
-  <si>
-    <t>J5, J7</t>
-  </si>
-  <si>
-    <t>R97, R98, R101, R104, R107, R108, R109</t>
-  </si>
-  <si>
-    <t>R48, R53, R99</t>
-  </si>
-  <si>
-    <t>R3, R4, R5, R7, R21, R24, R25, R27, R28, R42, R44, R45, R46, R50, R51, R52, R57, R61, R62, R65, R66, R67, R82, R83, R84, R85, R105, R114, R115, R116, R119, R121, R125, R127, R218, R230, R231, R235, R238</t>
-  </si>
-  <si>
-    <t>C6, C35, C44</t>
+    <t>Q20, Q21, Q22, Q207, Q211, Q212, Q213, Q220</t>
+  </si>
+  <si>
+    <t>Orion GPS</t>
+  </si>
+  <si>
+    <t>C4, C12, C13, C15, C27, C33, C221, C222, C228, C229, C244</t>
   </si>
 </sst>
 </file>
@@ -1267,11 +1342,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1594,21 +1666,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1618,7 +1688,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1628,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1641,57 +1711,57 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>160</v>
+      <c r="C2" t="s">
+        <v>225</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>204</v>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>204</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>204</v>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1699,22 +1769,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>254</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,17 +1791,17 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>163</v>
+      <c r="C6" t="s">
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>204</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1744,57 +1811,57 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>164</v>
+      <c r="C7" t="s">
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>204</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>165</v>
+      <c r="C8" t="s">
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>207</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>166</v>
+      <c r="C9" t="s">
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>207</v>
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1804,1841 +1871,1914 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>167</v>
+      <c r="C10" t="s">
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>208</v>
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>204</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>207</v>
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>204</v>
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>168</v>
+      <c r="C15" t="s">
+        <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>211</v>
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>209</v>
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
+      <c r="C17" t="s">
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>211</v>
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>169</v>
+      <c r="C18" t="s">
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>204</v>
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>170</v>
+      <c r="C19" t="s">
+        <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>204</v>
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>171</v>
+      <c r="C20" t="s">
+        <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>208</v>
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
+      <c r="C21" t="s">
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
+      <c r="C22" t="s">
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
+      <c r="C23" t="s">
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
+      <c r="C24" t="s">
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
+      <c r="C25" t="s">
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
+      <c r="C26" t="s">
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>172</v>
+      <c r="C27" t="s">
+        <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>49</v>
+      <c r="C28" t="s">
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
+      <c r="C29" t="s">
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
+      <c r="C30" t="s">
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>216</v>
-      </c>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>250</v>
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>238</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
+      <c r="C32" t="s">
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>58</v>
+      <c r="C33" t="s">
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>60</v>
+      <c r="C34" t="s">
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>63</v>
+      <c r="C35" t="s">
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>66</v>
+      <c r="C36" t="s">
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>173</v>
+      <c r="C37" t="s">
+        <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>71</v>
+      <c r="C38" t="s">
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>223</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>249</v>
+        <v>95</v>
+      </c>
+      <c r="F38">
+        <v>7447709220</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>174</v>
+      <c r="C39" t="s">
+        <v>240</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>175</v>
+      <c r="C40" t="s">
+        <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>75</v>
+      <c r="C41" t="s">
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>7</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>176</v>
+      <c r="C42" t="s">
+        <v>242</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>78</v>
+      <c r="C43" t="s">
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>177</v>
+      <c r="C44" t="s">
+        <v>243</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>81</v>
+      <c r="C45" t="s">
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
-      </c>
-      <c r="F45" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>178</v>
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>277</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>84</v>
+      <c r="C47" t="s">
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>179</v>
+      <c r="C48" t="s">
+        <v>244</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>180</v>
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>88</v>
+      <c r="C50" t="s">
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>90</v>
+      <c r="C51" t="s">
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>204</v>
+        <v>123</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>204</v>
+        <v>124</v>
+      </c>
+      <c r="E52" t="s">
+        <v>121</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>39</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>253</v>
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>246</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>204</v>
+        <v>125</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>39</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>204</v>
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54">
+        <v>0.1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>126</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55">
-        <v>0.1</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>231</v>
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
+        <v>121</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>183</v>
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>249</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>204</v>
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>121</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>184</v>
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>204</v>
+        <v>130</v>
+      </c>
+      <c r="E57" t="s">
+        <v>121</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>250</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>204</v>
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>121</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>12</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>185</v>
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>251</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>204</v>
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>121</v>
       </c>
       <c r="F59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>186</v>
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>252</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>204</v>
+        <v>133</v>
+      </c>
+      <c r="E60" t="s">
+        <v>121</v>
       </c>
       <c r="F60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>187</v>
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>204</v>
+        <v>135</v>
+      </c>
+      <c r="E61" t="s">
+        <v>121</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>103</v>
+      <c r="C62" t="s">
+        <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>204</v>
+        <v>137</v>
+      </c>
+      <c r="E62" t="s">
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>105</v>
+      <c r="C63" t="s">
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>204</v>
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>107</v>
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>253</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>204</v>
+        <v>140</v>
+      </c>
+      <c r="E64" t="s">
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>5</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>204</v>
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>252</v>
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>255</v>
       </c>
       <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>204</v>
+        <v>100</v>
+      </c>
+      <c r="E66" t="s">
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>71</v>
+      </c>
       <c r="B67">
-        <v>7</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>251</v>
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>256</v>
       </c>
       <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>204</v>
+        <v>680</v>
+      </c>
+      <c r="E67" t="s">
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D68">
-        <v>100</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>204</v>
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" t="s">
+        <v>121</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69">
-        <v>680</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>204</v>
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" t="s">
+        <v>121</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" t="s">
-        <v>111</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>204</v>
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70">
+        <v>330</v>
+      </c>
+      <c r="E70" t="s">
+        <v>121</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>191</v>
+      <c r="C71" t="s">
+        <v>259</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>204</v>
+        <v>144</v>
+      </c>
+      <c r="E71" t="s">
+        <v>121</v>
       </c>
       <c r="F71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>192</v>
+      <c r="C72" t="s">
+        <v>260</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>211</v>
+        <v>124</v>
+      </c>
+      <c r="E72" t="s">
+        <v>145</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>113</v>
+      <c r="C73" t="s">
+        <v>146</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>211</v>
+        <v>127</v>
+      </c>
+      <c r="E73" t="s">
+        <v>145</v>
       </c>
       <c r="F73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>8</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>193</v>
+      <c r="C74" t="s">
+        <v>261</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>211</v>
+        <v>147</v>
+      </c>
+      <c r="E74" t="s">
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>115</v>
+      <c r="C75" t="s">
+        <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>211</v>
+        <v>149</v>
+      </c>
+      <c r="E75" t="s">
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>194</v>
+      <c r="C76" t="s">
+        <v>262</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>204</v>
+        <v>150</v>
+      </c>
+      <c r="E76" t="s">
+        <v>121</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>195</v>
+      <c r="C77" t="s">
+        <v>263</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>204</v>
+        <v>151</v>
+      </c>
+      <c r="E77" t="s">
+        <v>121</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>119</v>
+      <c r="C78" t="s">
+        <v>152</v>
       </c>
       <c r="D78">
         <v>0.05</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>209</v>
+      <c r="E78" t="s">
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" t="s">
         <v>121</v>
       </c>
-      <c r="D79" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="F79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>123</v>
+      <c r="C80" t="s">
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>204</v>
+        <v>158</v>
+      </c>
+      <c r="E80" t="s">
+        <v>121</v>
       </c>
       <c r="F80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>125</v>
+      <c r="C81" t="s">
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="E81" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="F81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>127</v>
+      <c r="C82" t="s">
+        <v>162</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>196</v>
+      <c r="C83" t="s">
+        <v>264</v>
       </c>
       <c r="D83" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>204</v>
+        <v>124</v>
+      </c>
+      <c r="E83" t="s">
+        <v>121</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>130</v>
+      <c r="C84" t="s">
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E84" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="F84" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>132</v>
+      <c r="C85" t="s">
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="E85" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="F85" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" t="s">
+        <v>173</v>
+      </c>
+      <c r="F86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" t="s">
+        <v>180</v>
+      </c>
+      <c r="F88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" t="s">
+        <v>182</v>
+      </c>
+      <c r="E89" t="s">
+        <v>183</v>
+      </c>
+      <c r="F89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" t="s">
+        <v>185</v>
+      </c>
+      <c r="E90" t="s">
+        <v>186</v>
+      </c>
+      <c r="F90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" t="s">
+        <v>278</v>
+      </c>
+      <c r="E91" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" t="s">
+        <v>188</v>
+      </c>
+      <c r="G91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" t="s">
+        <v>192</v>
+      </c>
+      <c r="F92" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" t="s">
+        <v>196</v>
+      </c>
+      <c r="F93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>266</v>
+      </c>
+      <c r="D94" t="s">
         <v>197</v>
       </c>
-      <c r="D86" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" t="s">
-        <v>242</v>
-      </c>
-      <c r="F86" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>88</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" t="s">
-        <v>238</v>
-      </c>
-      <c r="F87" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>89</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" t="s">
-        <v>138</v>
-      </c>
-      <c r="E88" t="s">
-        <v>237</v>
-      </c>
-      <c r="F88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>90</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" t="s">
-        <v>236</v>
-      </c>
-      <c r="F89" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>91</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D90" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" t="s">
-        <v>243</v>
-      </c>
-      <c r="F90" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>94</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" t="s">
-        <v>144</v>
-      </c>
-      <c r="E91" t="s">
-        <v>234</v>
-      </c>
-      <c r="F91" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>95</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" t="s">
-        <v>146</v>
-      </c>
-      <c r="E92" t="s">
-        <v>235</v>
-      </c>
-      <c r="F92" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>97</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D93" t="s">
-        <v>148</v>
-      </c>
-      <c r="E93" t="s">
-        <v>236</v>
-      </c>
-      <c r="F93" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>98</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D94" t="s">
-        <v>150</v>
-      </c>
       <c r="E94" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="F94" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>198</v>
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>199</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="E95" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="F95" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>199</v>
+      <c r="C96" t="s">
+        <v>267</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="E96" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="F96" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="E97" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>201</v>
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E98" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F98" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>268</v>
       </c>
       <c r="D99" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E99" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="F99" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>269</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>240</v>
+        <v>212</v>
+      </c>
+      <c r="E100" t="s">
+        <v>213</v>
       </c>
       <c r="F100" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>202</v>
+      <c r="C101" t="s">
+        <v>270</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="E101" t="s">
+        <v>215</v>
       </c>
       <c r="F101" t="s">
-        <v>159</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" t="s">
+        <v>217</v>
+      </c>
+      <c r="F102" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>218</v>
+      </c>
+      <c r="D103" t="s">
+        <v>276</v>
+      </c>
+      <c r="E103" t="s">
+        <v>219</v>
+      </c>
+      <c r="F103" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" t="s">
+        <v>222</v>
+      </c>
+      <c r="F104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E105" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hardware/foras-promineo-revB-em/bom/mainboard.xlsx
+++ b/hardware/foras-promineo-revB-em/bom/mainboard.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="mainboard" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="279">
   <si>
     <t>Item</t>
   </si>
@@ -348,9 +348,6 @@
     <t>mainboard:BSS138DWQ-7</t>
   </si>
   <si>
-    <t>Q17</t>
-  </si>
-  <si>
     <t>FJV992FMTF</t>
   </si>
   <si>
@@ -747,9 +744,6 @@
     <t>Q2, Q3, Q7, Q8, Q15, Q16</t>
   </si>
   <si>
-    <t>Q9, Q10, Q52, Q53, Q54, Q215, Q222</t>
-  </si>
-  <si>
     <t>Q12, Q13, Q18, Q19</t>
   </si>
   <si>
@@ -859,6 +853,9 @@
   </si>
   <si>
     <t>C4, C12, C13, C15, C27, C33, C221, C222, C228, C229, C244</t>
+  </si>
+  <si>
+    <t>Q9, Q10, Q17, Q52, Q53, Q54, Q215, Q222</t>
   </si>
 </sst>
 </file>
@@ -1666,15 +1663,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
     <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
@@ -1698,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1712,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1732,7 +1729,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1752,7 +1749,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1772,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1792,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1812,7 +1809,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1832,7 +1829,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1852,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1872,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1972,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -2032,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
@@ -2052,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -2072,7 +2069,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -2212,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
         <v>58</v>
@@ -2261,7 +2258,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2289,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
         <v>69</v>
@@ -2409,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
         <v>90</v>
@@ -2449,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D39" t="s">
         <v>96</v>
@@ -2469,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D40" t="s">
         <v>98</v>
@@ -2503,10 +2500,10 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="D42" t="s">
         <v>103</v>
@@ -2535,7 +2532,7 @@
         <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,7 +2543,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D44" t="s">
         <v>107</v>
@@ -2555,118 +2552,121 @@
         <v>108</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="D45" t="s">
         <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+      <c r="F45" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="D47" t="s">
         <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="F48" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" t="s">
         <v>120</v>
-      </c>
-      <c r="E50" t="s">
-        <v>121</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -2674,19 +2674,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D51" t="s">
         <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -2694,19 +2694,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
         <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -2714,19 +2714,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
-      </c>
-      <c r="D53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53">
+        <v>0.1</v>
+      </c>
+      <c r="E53" t="s">
         <v>125</v>
-      </c>
-      <c r="E53" t="s">
-        <v>121</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -2734,19 +2734,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54">
-        <v>0.1</v>
+        <v>246</v>
+      </c>
+      <c r="D54" t="s">
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -2754,19 +2754,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D55" t="s">
         <v>127</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -2774,19 +2774,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -2794,19 +2794,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="D57" t="s">
         <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -2814,19 +2814,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D58" t="s">
         <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -2834,19 +2834,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D59" t="s">
         <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -2854,19 +2854,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -2874,19 +2874,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
@@ -2894,19 +2894,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -2914,19 +2914,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="D63" t="s">
         <v>139</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -2934,19 +2934,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
-      </c>
-      <c r="D64" t="s">
-        <v>140</v>
+        <v>252</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
@@ -2954,19 +2954,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -2974,19 +2974,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D66">
-        <v>100</v>
+        <v>680</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -2994,19 +2994,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67">
-        <v>680</v>
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
@@ -3014,19 +3014,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="D68" t="s">
         <v>142</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
@@ -3034,19 +3034,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
-      </c>
-      <c r="D69" t="s">
-        <v>143</v>
+        <v>256</v>
+      </c>
+      <c r="D69">
+        <v>330</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
@@ -3054,19 +3054,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>258</v>
-      </c>
-      <c r="D70">
-        <v>330</v>
+        <v>257</v>
+      </c>
+      <c r="D70" t="s">
+        <v>143</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
@@ -3074,19 +3074,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D71" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" t="s">
         <v>144</v>
-      </c>
-      <c r="E71" t="s">
-        <v>121</v>
       </c>
       <c r="F71" t="s">
         <v>8</v>
@@ -3094,19 +3094,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
@@ -3114,19 +3114,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
+        <v>259</v>
+      </c>
+      <c r="D73" t="s">
         <v>146</v>
       </c>
-      <c r="D73" t="s">
-        <v>127</v>
-      </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
@@ -3134,19 +3134,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
         <v>8</v>
@@ -3154,19 +3154,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="D75" t="s">
         <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F75" t="s">
         <v>8</v>
@@ -3174,19 +3174,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D76" t="s">
         <v>150</v>
       </c>
       <c r="E76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
@@ -3194,59 +3194,59 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
-      </c>
-      <c r="D77" t="s">
         <v>151</v>
       </c>
+      <c r="D77">
+        <v>0.05</v>
+      </c>
       <c r="E77" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78">
-        <v>0.05</v>
+        <v>154</v>
+      </c>
+      <c r="D78" t="s">
+        <v>155</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
@@ -3254,325 +3254,325 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E80" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="F82" t="s">
-        <v>165</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="F83" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F84" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="D85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E85" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" t="s">
         <v>171</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E86" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E87" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F88" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E89" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F89" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F90" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="G90" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="E91" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F91" t="s">
-        <v>188</v>
-      </c>
-      <c r="G91" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D92" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E92" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="D93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F93" t="s">
         <v>196</v>
       </c>
-      <c r="F93" t="s">
-        <v>195</v>
+      <c r="G93" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E94" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F94" t="s">
-        <v>197</v>
-      </c>
-      <c r="G94" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="D95" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E95" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F95" t="s">
         <v>202</v>
@@ -3580,202 +3580,182 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E96" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="D98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E98" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98" t="s">
         <v>209</v>
-      </c>
-      <c r="F98" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E99" t="s">
+        <v>212</v>
+      </c>
+      <c r="F99" t="s">
         <v>211</v>
-      </c>
-      <c r="F99" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" t="s">
         <v>213</v>
-      </c>
-      <c r="F100" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E101" t="s">
+        <v>216</v>
+      </c>
+      <c r="F101" t="s">
         <v>215</v>
-      </c>
-      <c r="F101" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="E102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F102" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D103" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="E103" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F103" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="D104" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E104" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="F104" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>110</v>
-      </c>
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>272</v>
-      </c>
-      <c r="D105" t="s">
-        <v>224</v>
-      </c>
-      <c r="E105" t="s">
-        <v>27</v>
-      </c>
-      <c r="F105" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
